--- a/build/classes/model/updateEventTest.xlsx
+++ b/build/classes/model/updateEventTest.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\eclipse-workspace-ee\CruiseActivityManagement\test\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{126E4F50-9AC8-4594-8BB2-D47F3D8485C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08AA58E-D6BF-4491-9FA8-B7C5B784ECFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updateEventTest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t>test case no</t>
   </si>
@@ -88,15 +88,9 @@
     <t>sophia</t>
   </si>
   <si>
-    <t>jyotir</t>
-  </si>
-  <si>
     <t>Please correct the following errors</t>
   </si>
   <si>
-    <t>jyotir' is not available at that time</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -119,12 +113,24 @@
   </si>
   <si>
     <t>10/7/20 11:00</t>
+  </si>
+  <si>
+    <t>10/7/20 22:00</t>
+  </si>
+  <si>
+    <t>10/7/20 22:01</t>
+  </si>
+  <si>
+    <t>alan</t>
+  </si>
+  <si>
+    <t>alan is not available at that time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -709,7 +715,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -728,6 +734,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1082,11 +1090,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1191,13 +1199,13 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>21</v>
@@ -1233,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="K4" s="6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L4" s="7">
         <v>15</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
@@ -1279,26 +1287,26 @@
         <v>20</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P5" s="14"/>
     </row>
@@ -1325,13 +1333,13 @@
         <v>20</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>21</v>
@@ -1340,11 +1348,11 @@
         <v>0</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P6" s="14"/>
     </row>
@@ -1371,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>21</v>
@@ -1413,13 +1421,13 @@
         <v>20</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>21</v>
@@ -1455,13 +1463,13 @@
         <v>20</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>21</v>
@@ -1470,11 +1478,11 @@
         <v>101</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="14"/>
     </row>
@@ -1501,12 +1509,12 @@
         <v>20</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="6" t="s">
@@ -1516,12 +1524,12 @@
         <v>15</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1547,13 +1555,13 @@
         <v>20</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>21</v>
